--- a/SUBKEGIATAN PMK 2025 BARU.xlsx
+++ b/SUBKEGIATAN PMK 2025 BARU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bpkad\sipd-ri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2934693A-700E-42A3-ADCE-5EDC352FDC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE74730-B8B6-4E9E-9422-67AE066F9BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pendidikan" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="1870">
   <si>
     <t>Kode Kegiatan</t>
   </si>
@@ -5643,6 +5643,9 @@
   </si>
   <si>
     <t>Pengawasan Penyelenggaraan Jalan Kewenangan Kabupaten/Kota dan Desa</t>
+  </si>
+  <si>
+    <t>2.08.02.2.02.0002</t>
   </si>
 </sst>
 </file>
@@ -6041,8 +6044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F611"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="E607" sqref="E607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14754,7 +14757,9 @@
       <c r="C484" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="D484" s="2"/>
+      <c r="D484" s="2" t="s">
+        <v>1869</v>
+      </c>
       <c r="E484" s="2" t="s">
         <v>770</v>
       </c>
@@ -19925,7 +19930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
